--- a/scripts/Periodic-Table.xlsx
+++ b/scripts/Periodic-Table.xlsx
@@ -748,7 +748,7 @@
   <dimension ref="A1:D1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="I17" activeCellId="0" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/scripts/Periodic-Table.xlsx
+++ b/scripts/Periodic-Table.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="235">
   <si>
     <t xml:space="preserve">Atomic number</t>
   </si>
@@ -638,6 +638,93 @@
   </si>
   <si>
     <t xml:space="preserve">Am</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Curium </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Berkelium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Californium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Einsteinium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Es</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fermium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mendelevium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Md</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nobelium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lawrencium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rare earth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Usually means cerium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lanthanides</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lnd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Usually means lanthanum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Didymium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Usually includes praseodymium and neodymium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mischmetal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Usually includes cerium, lanthanum, and neodyminum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actinides</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Usually includes Uranium</t>
   </si>
 </sst>
 </file>
@@ -745,10 +832,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D1048576"/>
+  <dimension ref="A1:E109"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I17" activeCellId="0" sqref="I17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A91" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A104" activeCellId="0" sqref="A104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1872,7 +1959,158 @@
         <v>205</v>
       </c>
     </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="97" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="0" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="C97" s="0" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="0" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="C98" s="0" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="0" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="C99" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="0" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="C100" s="0" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="C101" s="0" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="0" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="C102" s="0" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="0" t="n">
+        <v>102</v>
+      </c>
+      <c r="B103" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="C103" s="0" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="0" t="n">
+        <v>103</v>
+      </c>
+      <c r="B104" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="C104" s="0" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="0" t="n">
+        <v>104</v>
+      </c>
+      <c r="B105" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="C105" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="E105" s="0" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="0" t="n">
+        <v>105</v>
+      </c>
+      <c r="B106" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="C106" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="E106" s="0" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="0" t="n">
+        <v>106</v>
+      </c>
+      <c r="B107" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="E107" s="0" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="0" t="n">
+        <v>107</v>
+      </c>
+      <c r="B108" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="E108" s="0" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="0" t="n">
+        <v>108</v>
+      </c>
+      <c r="B109" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="C109" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="E109" s="0" t="s">
+        <v>234</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/scripts/Periodic-Table.xlsx
+++ b/scripts/Periodic-Table.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="231">
   <si>
     <t xml:space="preserve">Atomic number</t>
   </si>
@@ -688,7 +688,7 @@
     <t xml:space="preserve">Lr</t>
   </si>
   <si>
-    <t xml:space="preserve">Rare earth</t>
+    <t xml:space="preserve">Rare Earths</t>
   </si>
   <si>
     <t xml:space="preserve">RE</t>
@@ -700,31 +700,19 @@
     <t xml:space="preserve">Lanthanides</t>
   </si>
   <si>
-    <t xml:space="preserve">Lnd</t>
+    <t xml:space="preserve">Lad</t>
   </si>
   <si>
     <t xml:space="preserve">Usually means lanthanum</t>
   </si>
   <si>
-    <t xml:space="preserve">Didymium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Usually includes praseodymium and neodymium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mischmetal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Usually includes cerium, lanthanum, and neodyminum</t>
-  </si>
-  <si>
     <t xml:space="preserve">Actinides</t>
   </si>
   <si>
     <t xml:space="preserve">Acd</t>
   </si>
   <si>
-    <t xml:space="preserve">Usually includes Uranium</t>
+    <t xml:space="preserve">Usually means uranium</t>
   </si>
 </sst>
 </file>
@@ -758,18 +746,12 @@
       <family val="0"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -811,7 +793,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -832,10 +814,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E109"/>
+  <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A91" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A104" activeCellId="0" sqref="A104"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A97" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E102" activeCellId="0" sqref="E102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2061,7 +2043,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="n">
         <v>105</v>
       </c>
@@ -2082,35 +2064,15 @@
       <c r="B107" s="0" t="s">
         <v>228</v>
       </c>
+      <c r="C107" s="0" t="s">
+        <v>229</v>
+      </c>
       <c r="E107" s="0" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="0" t="n">
-        <v>107</v>
-      </c>
-      <c r="B108" s="0" t="s">
         <v>230</v>
       </c>
-      <c r="E108" s="0" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="0" t="n">
-        <v>108</v>
-      </c>
-      <c r="B109" s="0" t="s">
-        <v>232</v>
-      </c>
-      <c r="C109" s="0" t="s">
-        <v>233</v>
-      </c>
-      <c r="E109" s="0" t="s">
-        <v>234</v>
-      </c>
-    </row>
+    </row>
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/scripts/Periodic-Table.xlsx
+++ b/scripts/Periodic-Table.xlsx
@@ -817,7 +817,7 @@
   <dimension ref="A1:E1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A97" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E102" activeCellId="0" sqref="E102"/>
+      <selection pane="topLeft" activeCell="D113" activeCellId="0" sqref="D113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
